--- a/MFCcontrol/bin/Debug/GasFlow - Copy.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow - Copy.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>-1</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I1">
         <v>-1</v>
@@ -651,32 +651,8 @@
       <c r="A6">
         <v>0.1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
+      <c r="F6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -694,9 +670,44 @@
       <c r="A8">
         <v>0.2</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>-1</v>
       </c>
     </row>

--- a/MFCcontrol/bin/Debug/GasFlow - Copy.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow - Copy.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0</v>
